--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-periodofuse.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosage-periodofuse.xlsx
@@ -161,53 +161,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -771,7 +771,7 @@
         <v>47</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>41</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -793,25 +793,25 @@
         <v>42</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -862,13 +862,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -877,15 +877,15 @@
         <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -908,13 +908,13 @@
         <v>41</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -953,19 +953,19 @@
         <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>42</v>
@@ -977,7 +977,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -996,10 +996,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
@@ -1073,10 +1073,10 @@
         <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
@@ -1104,7 +1104,7 @@
         <v>42</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -1179,7 +1179,7 @@
         <v>42</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
@@ -1207,25 +1207,25 @@
         <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1276,13 +1276,13 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
@@ -1291,7 +1291,7 @@
         <v>41</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1322,7 +1322,7 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>77</v>
@@ -1369,19 +1369,19 @@
         <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>42</v>
@@ -1393,10 +1393,10 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1412,10 +1412,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>41</v>
@@ -1492,7 +1492,7 @@
         <v>42</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>87</v>
@@ -1520,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>41</v>
@@ -1599,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>87</v>
